--- a/組み込み/演算.xlsx
+++ b/組み込み/演算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\サークル関連\ランサー\組み込み\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659564F5-8F5D-4500-A965-89D64628BA89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A69696-6698-4935-B8D0-CA0445C877B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1095" windowWidth="24240" windowHeight="13740" xr2:uid="{CDE03E1E-5223-4BFB-BE7D-83ABD4579B63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CDE03E1E-5223-4BFB-BE7D-83ABD4579B63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,58 +254,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98821176880261863</c:v>
+                  <c:v>1.0597390598633232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7950849718747373</c:v>
+                  <c:v>2.9973947020704497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1348989766109323</c:v>
+                  <c:v>5.5065656833456549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.905694150420949</c:v>
+                  <c:v>8.4779124789065854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.048543456039805</c:v>
+                  <c:v>11.848242881330547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.523687548277813</c:v>
+                  <c:v>15.574919742971391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.301938080432905</c:v>
+                  <c:v>19.626642049138209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.360679774997898</c:v>
+                  <c:v>23.979157616563597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.6817177576707</c:v>
+                  <c:v>28.612954616309725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.25</c:v>
+                  <c:v>33.511891546136276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.05280415584896</c:v>
+                  <c:v>38.662325209756851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.079191812887458</c:v>
+                  <c:v>44.052525466765239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.31962664465248</c:v>
+                  <c:v>49.672265746339775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.76569810212164</c:v>
+                  <c:v>55.512526739466651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.409915846480736</c:v>
+                  <c:v>61.565275952642331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.245553203367592</c:v>
+                  <c:v>67.823299831252683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.26652555527815</c:v>
+                  <c:v>74.28007334995705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.467294240617903</c:v>
+                  <c:v>80.929656955902132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,7 +1401,7 @@
   <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1419,8 +1419,8 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f>C3*(SQRT(C3*2))/16</f>
-        <v>0.98821176880261863</v>
+        <f>C3*(SQRT(C3*2.3))/16</f>
+        <v>1.0597390598633232</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.45">
@@ -1428,8 +1428,8 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>C4*(SQRT(C4*2))/16</f>
-        <v>2.7950849718747373</v>
+        <f t="shared" ref="D4:D20" si="0">C4*(SQRT(C4*2.3))/16</f>
+        <v>2.9973947020704497</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.45">
@@ -1437,8 +1437,8 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <f>C5*(SQRT(C5*2))/16</f>
-        <v>5.1348989766109323</v>
+        <f t="shared" si="0"/>
+        <v>5.5065656833456549</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.45">
@@ -1446,8 +1446,8 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <f>C6*(SQRT(C6*2))/16</f>
-        <v>7.905694150420949</v>
+        <f t="shared" si="0"/>
+        <v>8.4779124789065854</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.45">
@@ -1455,8 +1455,8 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <f>C7*(SQRT(C7*2))/16</f>
-        <v>11.048543456039805</v>
+        <f t="shared" si="0"/>
+        <v>11.848242881330547</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.45">
@@ -1464,8 +1464,8 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <f>C8*(SQRT(C8*2))/16</f>
-        <v>14.523687548277813</v>
+        <f t="shared" si="0"/>
+        <v>15.574919742971391</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.45">
@@ -1473,8 +1473,8 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <f>C9*(SQRT(C9*2))/16</f>
-        <v>18.301938080432905</v>
+        <f t="shared" si="0"/>
+        <v>19.626642049138209</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.45">
@@ -1482,8 +1482,8 @@
         <v>40</v>
       </c>
       <c r="D10">
-        <f>C10*(SQRT(C10*2))/16</f>
-        <v>22.360679774997898</v>
+        <f t="shared" si="0"/>
+        <v>23.979157616563597</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.45">
@@ -1491,8 +1491,8 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <f>C11*(SQRT(C11*2))/16</f>
-        <v>26.6817177576707</v>
+        <f t="shared" si="0"/>
+        <v>28.612954616309725</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.45">
@@ -1500,8 +1500,8 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <f>C12*(SQRT(C12*2))/16</f>
-        <v>31.25</v>
+        <f t="shared" si="0"/>
+        <v>33.511891546136276</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.45">
@@ -1509,8 +1509,8 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <f>C13*(SQRT(C13*2))/16</f>
-        <v>36.05280415584896</v>
+        <f t="shared" si="0"/>
+        <v>38.662325209756851</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.45">
@@ -1518,8 +1518,8 @@
         <v>60</v>
       </c>
       <c r="D14">
-        <f>C14*(SQRT(C14*2))/16</f>
-        <v>41.079191812887458</v>
+        <f t="shared" si="0"/>
+        <v>44.052525466765239</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.45">
@@ -1527,8 +1527,8 @@
         <v>65</v>
       </c>
       <c r="D15">
-        <f>C15*(SQRT(C15*2))/16</f>
-        <v>46.31962664465248</v>
+        <f t="shared" si="0"/>
+        <v>49.672265746339775</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.45">
@@ -1536,8 +1536,8 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <f>C16*(SQRT(C16*2))/16</f>
-        <v>51.76569810212164</v>
+        <f t="shared" si="0"/>
+        <v>55.512526739466651</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
@@ -1545,8 +1545,8 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <f>C17*(SQRT(C17*2))/16</f>
-        <v>57.409915846480736</v>
+        <f t="shared" si="0"/>
+        <v>61.565275952642331</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
@@ -1554,8 +1554,8 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <f>C18*(SQRT(C18*2))/16</f>
-        <v>63.245553203367592</v>
+        <f t="shared" si="0"/>
+        <v>67.823299831252683</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.45">
@@ -1563,8 +1563,8 @@
         <v>85</v>
       </c>
       <c r="D19">
-        <f>C19*(SQRT(C19*2))/16</f>
-        <v>69.26652555527815</v>
+        <f t="shared" si="0"/>
+        <v>74.28007334995705</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.45">
@@ -1572,8 +1572,8 @@
         <v>90</v>
       </c>
       <c r="D20">
-        <f>C20*(SQRT(C20*2))/16</f>
-        <v>75.467294240617903</v>
+        <f t="shared" si="0"/>
+        <v>80.929656955902132</v>
       </c>
     </row>
   </sheetData>
